--- a/src/docs/dataBase.xlsx
+++ b/src/docs/dataBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28680" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Ession</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Manager</t>
   </si>
@@ -60,12 +60,15 @@
     <t>平台使用者账号管理</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
     <t>account</t>
   </si>
   <si>
-    <t>String</t>
-  </si>
-  <si>
     <t>本平台操作用户账号</t>
   </si>
   <si>
@@ -96,7 +99,7 @@
     <t>hasAppID</t>
   </si>
   <si>
-    <t>所微信AppId</t>
+    <t>微信AppId</t>
   </si>
   <si>
     <t>hasModelList</t>
@@ -109,6 +112,48 @@
   </si>
   <si>
     <t>设置语言偏好</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>修改日期</t>
+  </si>
+  <si>
+    <t>TK_Access_Token</t>
+  </si>
+  <si>
+    <t>凭证存储表</t>
+  </si>
+  <si>
+    <t>appid</t>
+  </si>
+  <si>
+    <t>第三方用户唯一凭证</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>第三方用户唯一凭证密钥</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>获取到的凭证</t>
+  </si>
+  <si>
+    <t>expires_in</t>
+  </si>
+  <si>
+    <t>凭证有效时间，单位：秒</t>
   </si>
 </sst>
 </file>
@@ -116,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -128,7 +173,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +236,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,11 +566,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -531,10 +594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -556,87 +619,206 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -654,6 +836,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -670,6 +853,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/docs/dataBase.xlsx
+++ b/src/docs/dataBase.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Manager</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>修改日期</t>
+  </si>
+  <si>
+    <t>belong</t>
+  </si>
+  <si>
+    <t>属于（工作组或公司）</t>
   </si>
   <si>
     <t>TK_Access_Token</t>
@@ -162,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -173,7 +179,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +189,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,16 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -619,7 +610,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -728,94 +719,105 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="5" t="s">
+    <row r="13" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/docs/dataBase.xlsx
+++ b/src/docs/dataBase.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>Manager</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>属于（工作组或公司）</t>
+  </si>
+  <si>
+    <t>au_detail</t>
+  </si>
+  <si>
+    <t>权限细节</t>
   </si>
   <si>
     <t>TK_Access_Token</t>
@@ -167,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -585,10 +591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -730,34 +736,34 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
@@ -786,7 +792,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>35</v>
@@ -794,30 +800,41 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/docs/dataBase.xlsx
+++ b/src/docs/dataBase.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ession</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="D7" authorId="0">
@@ -44,6 +45,20 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">该用户所持有并管理的微信AppId</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0为true,1为false
+a:APPID是否对当前管理者可见</t>
         </r>
       </text>
     </comment>
@@ -594,7 +609,7 @@
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/src/docs/dataBase.xlsx
+++ b/src/docs/dataBase.xlsx
@@ -62,12 +62,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">若为0，则为正常可使用状态，若为1则为暂停使用状态</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>Manager</t>
   </si>
@@ -151,6 +164,18 @@
   </si>
   <si>
     <t>权限细节</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>姓名或昵称</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>用户状态</t>
   </si>
   <si>
     <t>TK_Access_Token</t>
@@ -188,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -606,10 +631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -762,45 +787,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
@@ -818,7 +843,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
@@ -826,30 +851,52 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
